--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H2">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N2">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O2">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P2">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q2">
-        <v>0.5778154167</v>
+        <v>0.5044316252444444</v>
       </c>
       <c r="R2">
-        <v>5.2003387503</v>
+        <v>4.5398846272</v>
       </c>
       <c r="S2">
-        <v>0.006047291680221471</v>
+        <v>0.004765079462754888</v>
       </c>
       <c r="T2">
-        <v>0.006047291680221471</v>
+        <v>0.004765079462754889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H3">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O3">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P3">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q3">
-        <v>2.159312030250001</v>
+        <v>1.186709472664445</v>
       </c>
       <c r="R3">
-        <v>19.43380827225</v>
+        <v>10.68038525398</v>
       </c>
       <c r="S3">
-        <v>0.02259889455720879</v>
+        <v>0.01121017131649857</v>
       </c>
       <c r="T3">
-        <v>0.02259889455720879</v>
+        <v>0.01121017131649857</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H4">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N4">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O4">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P4">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q4">
-        <v>0.380763171525</v>
+        <v>0.2358614829884444</v>
       </c>
       <c r="R4">
-        <v>3.426868543725</v>
+        <v>2.122753346896</v>
       </c>
       <c r="S4">
-        <v>0.003984985330520125</v>
+        <v>0.002228049655091537</v>
       </c>
       <c r="T4">
-        <v>0.003984985330520125</v>
+        <v>0.002228049655091538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H5">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N5">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O5">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P5">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q5">
-        <v>1.53015027855</v>
+        <v>0.17663956271</v>
       </c>
       <c r="R5">
-        <v>13.77135250695</v>
+        <v>1.58975606439</v>
       </c>
       <c r="S5">
-        <v>0.01601422319572385</v>
+        <v>0.001668613763404588</v>
       </c>
       <c r="T5">
-        <v>0.01601422319572385</v>
+        <v>0.001668613763404588</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H6">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I6">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J6">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N6">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O6">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P6">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q6">
-        <v>0.7651922185500002</v>
+        <v>0.60322883322</v>
       </c>
       <c r="R6">
-        <v>6.886729966950001</v>
+        <v>5.42905949898</v>
       </c>
       <c r="S6">
-        <v>0.008008336924333269</v>
+        <v>0.00569836065120874</v>
       </c>
       <c r="T6">
-        <v>0.008008336924333271</v>
+        <v>0.005698360651208741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H7">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I7">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J7">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N7">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O7">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P7">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q7">
-        <v>0.2792018665500001</v>
+        <v>0.1676831555706667</v>
       </c>
       <c r="R7">
-        <v>2.51281679895</v>
+        <v>1.509148400136</v>
       </c>
       <c r="S7">
-        <v>0.00292206659063017</v>
+        <v>0.001584007665008146</v>
       </c>
       <c r="T7">
-        <v>0.002922066590630171</v>
+        <v>0.001584007665008146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.828211</v>
       </c>
       <c r="I8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N8">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O8">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P8">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q8">
-        <v>0.1766677129257778</v>
+        <v>0.2806346961777778</v>
       </c>
       <c r="R8">
-        <v>1.590009416332</v>
+        <v>2.5257122656</v>
       </c>
       <c r="S8">
-        <v>0.001848966226345084</v>
+        <v>0.002650996805850873</v>
       </c>
       <c r="T8">
-        <v>0.001848966226345084</v>
+        <v>0.002650996805850873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.828211</v>
       </c>
       <c r="I9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O9">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P9">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q9">
         <v>0.6602120795877779</v>
@@ -1013,10 +1013,10 @@
         <v>5.94190871629</v>
       </c>
       <c r="S9">
-        <v>0.006909637404406216</v>
+        <v>0.006236649060181154</v>
       </c>
       <c r="T9">
-        <v>0.006909637404406217</v>
+        <v>0.006236649060181154</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.828211</v>
       </c>
       <c r="I10">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J10">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N10">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O10">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P10">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q10">
-        <v>0.1164187675432222</v>
+        <v>0.1312188060897778</v>
       </c>
       <c r="R10">
-        <v>1.047768907889</v>
+        <v>1.180969254808</v>
       </c>
       <c r="S10">
-        <v>0.001218413742586742</v>
+        <v>0.001239549637123991</v>
       </c>
       <c r="T10">
-        <v>0.001218413742586743</v>
+        <v>0.001239549637123991</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.828211</v>
       </c>
       <c r="I11">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J11">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N11">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O11">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P11">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q11">
-        <v>0.4678451670397778</v>
+        <v>0.09827137620500002</v>
       </c>
       <c r="R11">
-        <v>4.210606503358</v>
+        <v>0.884442385845</v>
       </c>
       <c r="S11">
-        <v>0.004896366736681209</v>
+        <v>0.0009283139539559674</v>
       </c>
       <c r="T11">
-        <v>0.00489636673668121</v>
+        <v>0.0009283139539559674</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.828211</v>
       </c>
       <c r="I12">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J12">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N12">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O12">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P12">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q12">
-        <v>0.2339583806397778</v>
+        <v>0.3355993793100001</v>
       </c>
       <c r="R12">
-        <v>2.105625425758</v>
+        <v>3.02039441379</v>
       </c>
       <c r="S12">
-        <v>0.002448558013286073</v>
+        <v>0.003170216992815284</v>
       </c>
       <c r="T12">
-        <v>0.002448558013286073</v>
+        <v>0.003170216992815284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>0.828211</v>
       </c>
       <c r="I13">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J13">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N13">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O13">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P13">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q13">
-        <v>0.08536628442644446</v>
+        <v>0.09328858275866667</v>
       </c>
       <c r="R13">
-        <v>0.768296559838</v>
+        <v>0.8395972448279999</v>
       </c>
       <c r="S13">
-        <v>0.000893425143503024</v>
+        <v>0.0008812443303835618</v>
       </c>
       <c r="T13">
-        <v>0.0008934251435030241</v>
+        <v>0.0008812443303835619</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H14">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I14">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J14">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N14">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O14">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P14">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q14">
-        <v>0.3190454504071111</v>
+        <v>1.018540647822222</v>
       </c>
       <c r="R14">
-        <v>2.871409053664</v>
+        <v>9.166865830399999</v>
       </c>
       <c r="S14">
-        <v>0.003339060956314277</v>
+        <v>0.009621575809341434</v>
       </c>
       <c r="T14">
-        <v>0.003339060956314278</v>
+        <v>0.009621575809341434</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H15">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I15">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J15">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O15">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P15">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q15">
-        <v>1.192281582231111</v>
+        <v>2.396185676262223</v>
       </c>
       <c r="R15">
-        <v>10.73053424008</v>
+        <v>21.56567108636</v>
       </c>
       <c r="S15">
-        <v>0.0124781622025342</v>
+        <v>0.02263540702740723</v>
       </c>
       <c r="T15">
-        <v>0.0124781622025342</v>
+        <v>0.02263540702740723</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H16">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I16">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J16">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N16">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O16">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P16">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q16">
-        <v>0.2102414612808889</v>
+        <v>0.4762479108302222</v>
       </c>
       <c r="R16">
-        <v>1.892173151528</v>
+        <v>4.286231197472</v>
       </c>
       <c r="S16">
-        <v>0.002200341844291126</v>
+        <v>0.004498843897777613</v>
       </c>
       <c r="T16">
-        <v>0.002200341844291127</v>
+        <v>0.004498843897777614</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H17">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I17">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J17">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N17">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O17">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P17">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q17">
-        <v>0.8448848381351112</v>
+        <v>0.35666791222</v>
       </c>
       <c r="R17">
-        <v>7.603963543216</v>
+        <v>3.21001120998</v>
       </c>
       <c r="S17">
-        <v>0.008842382713807783</v>
+        <v>0.003369239473674145</v>
       </c>
       <c r="T17">
-        <v>0.008842382713807785</v>
+        <v>0.003369239473674145</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H18">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I18">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J18">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N18">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O18">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P18">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q18">
-        <v>0.4225070653351112</v>
+        <v>1.21803046404</v>
       </c>
       <c r="R18">
-        <v>3.802563588016</v>
+        <v>10.96227417636</v>
       </c>
       <c r="S18">
-        <v>0.004421867930814258</v>
+        <v>0.01150604295754498</v>
       </c>
       <c r="T18">
-        <v>0.004421867930814258</v>
+        <v>0.01150604295754498</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H19">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I19">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J19">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N19">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O19">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P19">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q19">
-        <v>0.1541635662417778</v>
+        <v>0.3385832714613333</v>
       </c>
       <c r="R19">
-        <v>1.387472096176</v>
+        <v>3.047249443151999</v>
       </c>
       <c r="S19">
-        <v>0.001613442674914309</v>
+        <v>0.003198404129580357</v>
       </c>
       <c r="T19">
-        <v>0.001613442674914309</v>
+        <v>0.003198404129580357</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H20">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I20">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J20">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N20">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O20">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P20">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q20">
-        <v>0.1118226496266667</v>
+        <v>0.04559050346666667</v>
       </c>
       <c r="R20">
-        <v>1.00640384664</v>
+        <v>0.4103145312</v>
       </c>
       <c r="S20">
-        <v>0.001170311762551596</v>
+        <v>0.0004306676284628161</v>
       </c>
       <c r="T20">
-        <v>0.001170311762551596</v>
+        <v>0.0004306676284628161</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H21">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I21">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J21">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O21">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P21">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q21">
-        <v>0.4178843028666667</v>
+        <v>0.1072547390366667</v>
       </c>
       <c r="R21">
-        <v>3.760958725800001</v>
+        <v>0.9652926513300001</v>
       </c>
       <c r="S21">
-        <v>0.004373487094638717</v>
+        <v>0.001013174687489292</v>
       </c>
       <c r="T21">
-        <v>0.004373487094638718</v>
+        <v>0.001013174687489292</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H22">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I22">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J22">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N22">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O22">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P22">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q22">
-        <v>0.07368779975333332</v>
+        <v>0.02131714829066667</v>
       </c>
       <c r="R22">
-        <v>0.66319019778</v>
+        <v>0.191854334616</v>
       </c>
       <c r="S22">
-        <v>0.0007712006386522541</v>
+        <v>0.0002013710093516285</v>
       </c>
       <c r="T22">
-        <v>0.0007712006386522542</v>
+        <v>0.0002013710093516285</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H23">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I23">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J23">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N23">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O23">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P23">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q23">
-        <v>0.2961247719066667</v>
+        <v>0.015964674285</v>
       </c>
       <c r="R23">
-        <v>2.66512294716</v>
+        <v>0.143682068565</v>
       </c>
       <c r="S23">
-        <v>0.003099178072620411</v>
+        <v>0.0001508092232087156</v>
       </c>
       <c r="T23">
-        <v>0.003099178072620412</v>
+        <v>0.0001508092232087156</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H24">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I24">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J24">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N24">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O24">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P24">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q24">
-        <v>0.1480850439066667</v>
+        <v>0.05451978987</v>
       </c>
       <c r="R24">
-        <v>1.33276539516</v>
+        <v>0.49067810883</v>
       </c>
       <c r="S24">
-        <v>0.001549826169568896</v>
+        <v>0.0005150175326484651</v>
       </c>
       <c r="T24">
-        <v>0.001549826169568896</v>
+        <v>0.0005150175326484653</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H25">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I25">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J25">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N25">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O25">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P25">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q25">
-        <v>0.05403298630666667</v>
+        <v>0.015155194684</v>
       </c>
       <c r="R25">
-        <v>0.48629687676</v>
+        <v>0.136396752156</v>
       </c>
       <c r="S25">
-        <v>0.000565497595090086</v>
+        <v>0.0001431625285345366</v>
       </c>
       <c r="T25">
-        <v>0.0005654975950900861</v>
+        <v>0.0001431625285345366</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H26">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I26">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J26">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N26">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O26">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P26">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q26">
-        <v>8.106455231862222</v>
+        <v>16.36660073457778</v>
       </c>
       <c r="R26">
-        <v>72.95809708676001</v>
+        <v>147.2994066112</v>
       </c>
       <c r="S26">
-        <v>0.08484041419265272</v>
+        <v>0.1546059944153046</v>
       </c>
       <c r="T26">
-        <v>0.08484041419265273</v>
+        <v>0.1546059944153047</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H27">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I27">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J27">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O27">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P27">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q27">
-        <v>30.29404512052223</v>
+        <v>38.50353378939779</v>
       </c>
       <c r="R27">
-        <v>272.6464060847</v>
+        <v>346.53180410458</v>
       </c>
       <c r="S27">
-        <v>0.3170509503949479</v>
+        <v>0.3637210454725924</v>
       </c>
       <c r="T27">
-        <v>0.317050950394948</v>
+        <v>0.3637210454725924</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H28">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I28">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J28">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N28">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O28">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P28">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q28">
-        <v>5.341912857807777</v>
+        <v>7.652673876001777</v>
       </c>
       <c r="R28">
-        <v>48.07721572027</v>
+        <v>68.87406488401599</v>
       </c>
       <c r="S28">
-        <v>0.05590730923377432</v>
+        <v>0.07229046970246147</v>
       </c>
       <c r="T28">
-        <v>0.05590730923377434</v>
+        <v>0.07229046970246149</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H29">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I29">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J29">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N29">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O29">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P29">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q29">
-        <v>21.46722702888222</v>
+        <v>5.731181496410001</v>
       </c>
       <c r="R29">
-        <v>193.20504325994</v>
+        <v>51.58063346769</v>
       </c>
       <c r="S29">
-        <v>0.2246713736898895</v>
+        <v>0.0541392210146025</v>
       </c>
       <c r="T29">
-        <v>0.2246713736898895</v>
+        <v>0.05413922101460251</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H30">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I30">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J30">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N30">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O30">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P30">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q30">
-        <v>10.73525607688222</v>
+        <v>19.57213816662</v>
       </c>
       <c r="R30">
-        <v>96.61730469194001</v>
+        <v>176.14924349958</v>
       </c>
       <c r="S30">
-        <v>0.1123528775496184</v>
+        <v>0.1848868884356081</v>
       </c>
       <c r="T30">
-        <v>0.1123528775496184</v>
+        <v>0.1848868884356081</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H31">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I31">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J31">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N31">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O31">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P31">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q31">
-        <v>3.917059611815556</v>
+        <v>5.440585244450665</v>
       </c>
       <c r="R31">
-        <v>35.25353650634</v>
+        <v>48.96526720005599</v>
       </c>
       <c r="S31">
-        <v>0.04099510209808451</v>
+        <v>0.05139412304122712</v>
       </c>
       <c r="T31">
-        <v>0.04099510209808452</v>
+        <v>0.05139412304122713</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H32">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I32">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J32">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N32">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O32">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P32">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q32">
-        <v>0.4070214752444445</v>
+        <v>0.3607053326222222</v>
       </c>
       <c r="R32">
-        <v>3.6631932772</v>
+        <v>3.2463479936</v>
       </c>
       <c r="S32">
-        <v>0.004259799080776582</v>
+        <v>0.003407378694290642</v>
       </c>
       <c r="T32">
-        <v>0.004259799080776583</v>
+        <v>0.003407378694290643</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H33">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I33">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J33">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O33">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P33">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q33">
-        <v>1.521050395444445</v>
+        <v>0.8485836605822225</v>
       </c>
       <c r="R33">
-        <v>13.689453559</v>
+        <v>7.637252945240001</v>
       </c>
       <c r="S33">
-        <v>0.01591898577940585</v>
+        <v>0.008016088546213223</v>
       </c>
       <c r="T33">
-        <v>0.01591898577940586</v>
+        <v>0.008016088546213225</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H34">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I34">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J34">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N34">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O34">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P34">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q34">
-        <v>0.2682150446555556</v>
+        <v>0.1686581300942222</v>
       </c>
       <c r="R34">
-        <v>2.4139354019</v>
+        <v>1.517923170848</v>
       </c>
       <c r="S34">
-        <v>0.002807080879425368</v>
+        <v>0.00159321769635115</v>
       </c>
       <c r="T34">
-        <v>0.002807080879425368</v>
+        <v>0.00159321769635115</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H35">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I35">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J35">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N35">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O35">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P35">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q35">
-        <v>1.077859824644444</v>
+        <v>0.12631014598</v>
       </c>
       <c r="R35">
-        <v>9.700738421800001</v>
+        <v>1.13679131382</v>
       </c>
       <c r="S35">
-        <v>0.01128064873596392</v>
+        <v>0.001193180309135462</v>
       </c>
       <c r="T35">
-        <v>0.01128064873596392</v>
+        <v>0.001193180309135463</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H36">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I36">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J36">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N36">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O36">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P36">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q36">
-        <v>0.5390123846444446</v>
+        <v>0.43135252836</v>
       </c>
       <c r="R36">
-        <v>4.8511114618</v>
+        <v>3.88217275524</v>
       </c>
       <c r="S36">
-        <v>0.005641187505540442</v>
+        <v>0.004074742683113064</v>
       </c>
       <c r="T36">
-        <v>0.005641187505540443</v>
+        <v>0.004074742683113065</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H37">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I37">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J37">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N37">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O37">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P37">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q37">
-        <v>0.1966738033111111</v>
+        <v>0.1199056628853333</v>
       </c>
       <c r="R37">
-        <v>1.7700642298</v>
+        <v>1.079150965968</v>
       </c>
       <c r="S37">
-        <v>0.002058345658676497</v>
+        <v>0.001132680789801859</v>
       </c>
       <c r="T37">
-        <v>0.002058345658676497</v>
+        <v>0.001132680789801859</v>
       </c>
     </row>
   </sheetData>
